--- a/Competition Info/Robotics Info.xlsx
+++ b/Competition Info/Robotics Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandersavoulides/Desktop/MS_VEXROBOTICS/Competition Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB8E680-4040-AD4D-966F-0337E2E7B294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F9E757-9982-D148-A525-420FE87232DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -110,8 +110,26 @@
       <color theme="1"/>
       <name val="Comfortaa"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Comfortaa"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Comfortaa"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +178,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -173,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -182,31 +206,42 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +480,7 @@
   <dimension ref="A1:AF1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -465,47 +500,47 @@
     <row r="1" spans="1:32" ht="15.75" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="M1" s="15"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="O2" s="3"/>
@@ -529,19 +564,19 @@
     </row>
     <row r="3" spans="1:32" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="3"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -563,31 +598,31 @@
     </row>
     <row r="4" spans="1:32" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="b">
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="4" t="b">
+      <c r="I4" s="6"/>
+      <c r="J4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="4" t="b">
+      <c r="K4" s="6"/>
+      <c r="L4" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="5" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="3"/>
@@ -611,19 +646,19 @@
     </row>
     <row r="5" spans="1:32" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="12"/>
       <c r="O5" s="3"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -645,31 +680,31 @@
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="10">
+      <c r="E6" s="6"/>
+      <c r="F6" s="8">
         <v>3</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="b">
+      <c r="G6" s="9"/>
+      <c r="H6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="4" t="b">
+      <c r="I6" s="6"/>
+      <c r="J6" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="4" t="b">
+      <c r="K6" s="6"/>
+      <c r="L6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="6" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="O6" s="3"/>
@@ -693,19 +728,19 @@
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="14"/>
       <c r="O7" s="3"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -727,31 +762,31 @@
     </row>
     <row r="8" spans="1:32" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="10">
+      <c r="E8" s="6"/>
+      <c r="F8" s="8">
         <v>8</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4" t="b">
+      <c r="G8" s="9"/>
+      <c r="H8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="4" t="b">
+      <c r="I8" s="6"/>
+      <c r="J8" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="4" t="b">
+      <c r="K8" s="6"/>
+      <c r="L8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="O8" s="3"/>
@@ -775,19 +810,19 @@
     </row>
     <row r="9" spans="1:32" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="14"/>
       <c r="O9" s="3"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -809,31 +844,31 @@
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="10">
+      <c r="E10" s="6"/>
+      <c r="F10" s="8">
         <v>2</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4" t="b">
+      <c r="G10" s="9"/>
+      <c r="H10" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="4" t="b">
+      <c r="I10" s="6"/>
+      <c r="J10" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="4" t="b">
+      <c r="K10" s="6"/>
+      <c r="L10" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="5" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="3"/>
@@ -857,19 +892,19 @@
     </row>
     <row r="11" spans="1:32" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="3"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -891,31 +926,31 @@
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4" t="b">
+      <c r="G12" s="9"/>
+      <c r="H12" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="4" t="b">
+      <c r="I12" s="6"/>
+      <c r="J12" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="4" t="b">
+      <c r="K12" s="6"/>
+      <c r="L12" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="4" t="s">
+      <c r="M12" s="6"/>
+      <c r="N12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="O12" s="3"/>
@@ -942,11 +977,11 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
